--- a/experiments/pep_algorithm_benchmarking/exports/result_summary_guardian.xlsx
+++ b/experiments/pep_algorithm_benchmarking/exports/result_summary_guardian.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="pep_describe_total" sheetId="1" r:id="rId1"/>
     <sheet name="hr_describe_total" sheetId="2" r:id="rId2"/>
-    <sheet name="pep_hr_correlation" sheetId="3" r:id="rId3"/>
-    <sheet name="pep_hr_linear_regression" sheetId="4" r:id="rId4"/>
-    <sheet name="pep_describe_phases" sheetId="5" r:id="rId5"/>
+    <sheet name="pep_describe_phases" sheetId="3" r:id="rId3"/>
+    <sheet name="pep_hr_correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="pep_hr_linear_regression" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,6 +38,24 @@
     <t>heart_rate_bpm</t>
   </si>
   <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Valsalva</t>
+  </si>
+  <si>
+    <t>HoldingBreath</t>
+  </si>
+  <si>
+    <t>TiltUp</t>
+  </si>
+  <si>
+    <t>TiltDown</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
@@ -93,24 +111,6 @@
   </si>
   <si>
     <t>Intercept</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-  <si>
-    <t>Pause</t>
-  </si>
-  <si>
-    <t>Valsalva</t>
-  </si>
-  <si>
-    <t>HoldingBreath</t>
-  </si>
-  <si>
-    <t>TiltUp</t>
-  </si>
-  <si>
-    <t>TiltDown</t>
   </si>
 </sst>
 </file>
@@ -556,168 +556,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>6565</v>
-      </c>
-      <c r="C2">
-        <v>0.08648985244666058</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>2.224480260654886E-12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>0.9999997950583536</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>126.5744835477634</v>
-      </c>
-      <c r="D2">
-        <v>1.715691139416148</v>
-      </c>
-      <c r="E2">
-        <v>73.77463264794669</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.007480494576245111</v>
-      </c>
-      <c r="H2">
-        <v>0.007329265031002952</v>
-      </c>
-      <c r="I2">
-        <v>123.211170437334</v>
-      </c>
-      <c r="J2">
-        <v>129.9377966581929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.1751222436088774</v>
-      </c>
-      <c r="D3">
-        <v>0.02489972092351127</v>
-      </c>
-      <c r="E3">
-        <v>7.033100657908186</v>
-      </c>
-      <c r="F3">
-        <v>2.22448026063445E-12</v>
-      </c>
-      <c r="G3">
-        <v>0.007480494576245111</v>
-      </c>
-      <c r="H3">
-        <v>0.007329265031002952</v>
-      </c>
-      <c r="I3">
-        <v>0.126310685453615</v>
-      </c>
-      <c r="J3">
-        <v>0.2239338017641397</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -750,12 +588,12 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>132.7118380062305</v>
@@ -772,7 +610,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>134.9924127465857</v>
@@ -789,7 +627,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>133.757443718228</v>
@@ -806,7 +644,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>154.4914207275223</v>
@@ -823,7 +661,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>134.16</v>
@@ -844,4 +682,166 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>6565</v>
+      </c>
+      <c r="C2">
+        <v>0.08648985244666058</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>2.224480260654886E-12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0.9999997950583536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>126.5744835477634</v>
+      </c>
+      <c r="D2">
+        <v>1.715691139416148</v>
+      </c>
+      <c r="E2">
+        <v>73.77463264794669</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.007480494576245111</v>
+      </c>
+      <c r="H2">
+        <v>0.007329265031002952</v>
+      </c>
+      <c r="I2">
+        <v>123.211170437334</v>
+      </c>
+      <c r="J2">
+        <v>129.9377966581929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.1751222436088774</v>
+      </c>
+      <c r="D3">
+        <v>0.02489972092351127</v>
+      </c>
+      <c r="E3">
+        <v>7.033100657908186</v>
+      </c>
+      <c r="F3">
+        <v>2.22448026063445E-12</v>
+      </c>
+      <c r="G3">
+        <v>0.007480494576245111</v>
+      </c>
+      <c r="H3">
+        <v>0.007329265031002952</v>
+      </c>
+      <c r="I3">
+        <v>0.126310685453615</v>
+      </c>
+      <c r="J3">
+        <v>0.2239338017641397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments/pep_algorithm_benchmarking/exports/result_summary_guardian.xlsx
+++ b/experiments/pep_algorithm_benchmarking/exports/result_summary_guardian.xlsx
@@ -53,7 +53,7 @@
     <t>TiltUp</t>
   </si>
   <si>
-    <t>TiltDown</t>
+    <t>TiltLevel</t>
   </si>
   <si>
     <t>n</t>
@@ -788,10 +788,10 @@
         <v>126.5744835477634</v>
       </c>
       <c r="D2">
-        <v>1.715691139416148</v>
+        <v>1.715691139416259</v>
       </c>
       <c r="E2">
-        <v>73.77463264794669</v>
+        <v>73.77463264794196</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0.007329265031002952</v>
       </c>
       <c r="I2">
-        <v>123.211170437334</v>
+        <v>123.2111704373338</v>
       </c>
       <c r="J2">
-        <v>129.9377966581929</v>
+        <v>129.9377966581931</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -820,13 +820,13 @@
         <v>0.1751222436088774</v>
       </c>
       <c r="D3">
-        <v>0.02489972092351127</v>
+        <v>0.02489972092351288</v>
       </c>
       <c r="E3">
-        <v>7.033100657908186</v>
+        <v>7.033100657907732</v>
       </c>
       <c r="F3">
-        <v>2.22448026063445E-12</v>
+        <v>2.224480260641628E-12</v>
       </c>
       <c r="G3">
         <v>0.007480494576245111</v>
@@ -835,10 +835,10 @@
         <v>0.007329265031002952</v>
       </c>
       <c r="I3">
-        <v>0.126310685453615</v>
+        <v>0.1263106854536118</v>
       </c>
       <c r="J3">
-        <v>0.2239338017641397</v>
+        <v>0.2239338017641429</v>
       </c>
     </row>
   </sheetData>
